--- a/Raysist/bin/Release/Resources/stage.xlsx
+++ b/Raysist/bin/Release/Resources/stage.xlsx
@@ -367,10 +367,13 @@
   <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1">
